--- a/public/excel/excelformatprinted.xlsx
+++ b/public/excel/excelformatprinted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Eurotracks\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012E68E4-73DE-41A8-A625-6C886FFF1705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C6AE9-017C-480C-883E-CDDB62C2EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19F451DB-BB54-4FC9-AE5E-27D047D86809}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Identification_No</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
 </sst>
 </file>
@@ -486,15 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCD4CA6-3452-456B-BBED-B85678F56BCB}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,9 +587,6 @@
       </c>
       <c r="AF1" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
